--- a/Output_testing/R1_201907/Country/HKD/MN/FRANCE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/FRANCE_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>9202.933281</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>26.49904200392387</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>9977.466205999999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>27.03613005215725</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>11095.520661</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>31.12547721031406</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5750.556067</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25.97281760246071</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-0.6624879928971983</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2458.522231</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.079099878008736</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2220.011646</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.015607804561247</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2322.695714</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.515693559718491</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1999.567691</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.031197386309481</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>54.84526699616501</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>272.761065</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.7853916460953217</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>455.671037</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.234740480496433</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>382.221142</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.072217862334096</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1617.943152</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.307561545081858</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>458.2244300869996</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2678.316529</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.711978348066717</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1866.06131</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.056501843335727</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1780.993241</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.9960940300275</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1251.453384</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.652283031747063</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>50.69678533480098</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1073.148026</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.090035942791487</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1751.00197</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.744723360128768</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2149.319171</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.029332639593524</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1217.676754</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.499728350078954</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-4.839044917788726</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2063.198395</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.940799445369066</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2667.028205</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>7.226897081324127</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1978.712203</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.550741011796385</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1165.462792</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.263900076164688</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>6.801364491975637</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1420.961824</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.091535373606093</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1440.729381</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.903971821147957</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1319.069401</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.700291841550032</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>797.884938</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.603707140835825</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>6.574221256854762</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1805.753383</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.199509035193736</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1650.393209</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.472101885836359</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1465.854633</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.112058042796049</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>771.794339</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.48586699440987</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-10.46204292551914</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1055.038417</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.037890906539145</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1201.066379</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.254552423779725</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1144.455146</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.210458855730633</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>698.8175639999999</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.156261918968943</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>4.962631974162401</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1044.424981</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.007330445240288</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>845.3635389999999</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.290697669114802</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>749.39777</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.102232416508605</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>519.027629</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.344227198481578</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>31.25799169095158</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>11654.247477</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>33.55738697516554</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12829.402307</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>34.76407557811761</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>11259.473517</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>31.58540252963062</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>6350.486583</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>28.68244875546103</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-4.236655436562509</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,453 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>99.71591100000001</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>33.26409944844414</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>158.729732</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>47.0233643177429</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>78.533467</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>27.73687764724412</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>124.155862</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>50.1220599228713</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>163.6441499074199</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>15.49565</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>5.169173479428808</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>4.949041</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1.466143456768683</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>58.503215</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>20.66248414100217</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>52.397855</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>21.15315689354983</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>60.86864951534032</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>45.354981</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>15.12990839010932</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>51.791619</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>15.34316311226894</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>47.015023</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>16.60502191420338</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>26.173916</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.56648123604667</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-3.105408689437406</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>21.836522</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>7.284416620494379</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>26.196621</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.760696358870148</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>20.171803</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>7.124387259450955</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>12.787335</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.162281996188223</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>25.95658054425174</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.04206</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.3476194232557901</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.06668808914893644</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>5.558581</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.244014301701952</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>6.691108</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.232077907128383</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>6.436441</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.906782719526405</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>6.023629</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.127458100957029</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>4.778085</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.92892593896672</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>9.273390618893075</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>10.571158</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.526418677528963</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>9.883508000000001</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.92796939530728</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>5.678934</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.005716843301655</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>4.033005</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.628135111971109</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>113.5418624660798</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>8.377966000000001</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.794794646159164</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>6.526815</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.933555835522416</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>7.864896</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.777766809407507</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>3.009919</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.215112504965644</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-40.35286687491541</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>27.84044</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>9.287255720387915</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>7.798228</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.310209383310895</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>15.588622</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>5.505674429261323</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>1.99938</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.8071551560617446</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-83.91238801963812</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.08634776271293879</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>1.37982</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.5570370952180759</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>62.58572</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>20.8778879243502</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>64.89801900000001</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>19.22590778983235</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>43.623671</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>15.40724574213223</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>11.433264</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.615639842458726</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-62.49606985404115</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1746,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>9196.181838</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>26.71015385993107</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>9977.122788999999</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>27.28476760755177</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>11095.434683</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.37443221757232</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5750.392645</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.26593949948057</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-0.6638836831973527</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>2358.80632</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.851112868672899</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2061.281914</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.63705581123519</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2244.162247</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.345791608472514</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1875.411829</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.566276544603539</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>50.72742982609453</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>270.6396</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.7860681186967848</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>455.319606</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.245177582716431</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>381.36493</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.078381198059477</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1617.228471</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.386978211489326</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>459.2933823256304</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1073.114511</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.116842859684947</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1750.897431</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.788237101999488</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2149.083601</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.076938821764117</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1217.53592</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.561311511653204</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-4.832647778506349</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2662.820879</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>7.734117988579826</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1861.112269</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.08964526398477</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1722.490026</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.870665107783717</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1199.055529</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.476899044209818</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>50.28153597211145</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2059.874362</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.982870076991984</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2648.060589</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>7.24173885694188</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1956.572832</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>5.532578348677168</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1164.994429</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.321318921752676</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>8.357725060668786</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1419.601978</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.123209819053437</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1440.159987</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.938453138645618</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1318.729838</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.72895709791464</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>797.679408</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.643542339448279</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.584151879418521</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1800.434368</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.22933102358559</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1640.977005</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.487634078246014</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1465.284578</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.143368239763722</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>771.7522269999999</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.525115336358287</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-10.40813022877336</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1027.197977</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.983479067030594</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1193.268151</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.263269870690973</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1128.866524</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.192082802685495</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>696.818184</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.182840788967015</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>6.653220711736596</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1044.332715</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.033246622347785</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>845.3435950000001</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.31178908247346</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>749.393469</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.11905123766406</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>519.026602</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.370746167847636</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>31.25908364617316</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11516.5307</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>33.44956769542508</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>12693.096822</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>34.71223160551441</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>11153.192497</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>31.53775331964276</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>6283.068627</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>28.69903163418965</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-4.372583933820218</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2204,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>8133.309187</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>19.62790874959634</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>12995.167338</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>26.12990183833109</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>11335.645196</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>21.34859613796591</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>7025.277244</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>20.98888160179828</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>139.5758819911779</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>6479.408485</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>15.6365921386852</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>7637.092026</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>15.35620587094291</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>8650.983586</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>16.29253135400323</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>5938.159404</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>17.74098307217796</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>21.96090324792612</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3633.244726</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>8.768017335534765</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>4261.076165</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>8.567915981468087</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>5058.55854</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.526861633674446</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>2513.693787</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.509969990661756</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-4.469645063292582</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2718.980483</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>6.561646629339851</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3274.231998</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.583629012108585</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3795.958145</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.148986757526882</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>2337.994935</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.985048016180335</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>4.223920274779935</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>907.455692</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.189939802773885</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>804.454897</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.61754958172088</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1493.122489</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.8120207055725</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2134.432959</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.376881524738151</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>147.5620093068563</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3142.335492</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>7.583318533639059</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2643.766571</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.315927004778612</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3004.106304</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>5.657679922995839</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1928.406643</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.76135251382661</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-3.838774848139037</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>902.017515</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.176815988165833</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>873.924498</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.757234882237942</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1225.582025</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.308157606671393</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>953.025031</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.8472797363681</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>50.93865229200809</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>772.166544</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.863449933681117</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>913.014055</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.835833815267999</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1323.289033</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.492170727898675</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>946.319803</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.827247041327451</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>33.6986165982329</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>754.391484</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.820553832269376</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>717.778685</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.443266261439532</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>999.4986</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.882371191310029</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>757.331946</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.262622526595548</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>41.62952604761103</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1799.546776</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>4.342800586803549</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2257.904033</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.540057792879641</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2152.535839</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.053904079101224</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>728.917857</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.177731933793206</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-42.34227766027452</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>12194.615589</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>29.42895646951102</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>13354.525657</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>26.85247795882473</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>14058.568564</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>26.47671988327988</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>8207.862915</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>24.52200204253261</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>3.405408004414712</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
